--- a/ProposalAdrienLumi2.xlsx
+++ b/ProposalAdrienLumi2.xlsx
@@ -83,16 +83,16 @@
     <t>LED Lamp control for a toy. Part of another project.</t>
   </si>
   <si>
-    <t xml:space="preserve">Worked with a group that worked on the Lumi, which was a toy designed for baby surveillance. </t>
-  </si>
-  <si>
     <t>Myself</t>
   </si>
   <si>
     <t>Raspberry Pi, Neopixel ring, Light sensor, Motion Sensor</t>
   </si>
   <si>
-    <t>A RGB LED Strip controlled by light and motion sensors. Turning on to the absence of light as well as human presense/motion detection.</t>
+    <t>A RGB LED Strip controlled by light and motion sensors. Turning on to the absence of light as well as human presense/motion detection. Potential option to change colors as per user preference.</t>
+  </si>
+  <si>
+    <t>Worked with a group that worked on the Lumi, which was a toy designed for baby surveillance.</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -569,15 +569,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
       </c>
       <c r="K2" s="2" t="str">
         <f>DataEntry!B11</f>
-        <v xml:space="preserve">Worked with a group that worked on the Lumi, which was a toy designed for baby surveillance. </v>
+        <v>Worked with a group that worked on the Lumi, which was a toy designed for baby surveillance.</v>
       </c>
       <c r="L2" s="2">
         <f>DataEntry!B12</f>
@@ -724,7 +724,7 @@
       </c>
       <c r="O2" s="2" t="str">
         <f>DataEntry!B15</f>
-        <v>A RGB LED Strip controlled by light and motion sensors. Turning on to the absence of light as well as human presense/motion detection.</v>
+        <v>A RGB LED Strip controlled by light and motion sensors. Turning on to the absence of light as well as human presense/motion detection. Potential option to change colors as per user preference.</v>
       </c>
     </row>
   </sheetData>
